--- a/PythonApplication1/ipr_read_data.xlsx
+++ b/PythonApplication1/ipr_read_data.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Johnny\Documents\UT_Law\2L Fall\Intellectual Property Tech Policy [Golden]\Final Paper\IPRAnalysis\IPRAnalysis\PythonApplication1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
   <si>
     <t>Trial Number(s)</t>
   </si>
@@ -112,9 +117,6 @@
   </si>
   <si>
     <t>IPR2015-01411</t>
-  </si>
-  <si>
-    <t>anuary4,2017</t>
   </si>
   <si>
     <t>7664971</t>
@@ -294,12 +296,15 @@
   <si>
     <t>0076-IPR2014-01006 FWD (Hyundai v Autoliv).pdf</t>
   </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -361,12 +366,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -413,7 +429,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,9 +461,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,6 +513,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,24 +706,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="10" width="40.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="10" width="40.6640625" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,7 +763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -747,7 +801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -785,15 +839,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
+      <c r="C4" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
@@ -802,7 +856,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
@@ -811,27 +865,27 @@
         <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -840,36 +894,36 @@
         <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -878,42 +932,45 @@
         <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:12" ht="220.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>18</v>
@@ -922,103 +979,103 @@
         <v>19</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>15</v>
@@ -1027,7 +1084,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>18</v>
@@ -1036,16 +1093,16 @@
         <v>19</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/PythonApplication1/ipr_read_data.xlsx
+++ b/PythonApplication1/ipr_read_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Johnny\Documents\UT_Law\2L Fall\Intellectual Property Tech Policy [Golden]\Final Paper\IPRAnalysis\IPRAnalysis\PythonApplication1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Johnny\Documents\UT_Law\2L Fall\Intellectual Property Tech Policy [Golden]\Final Paper\IPRAnalysis\IPRAnalysis\PythonApplication1\archive_runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="517">
   <si>
     <t>Trial Number(s)</t>
   </si>
@@ -57,13 +57,13 @@
     <t>Filename</t>
   </si>
   <si>
-    <t>IPR2013-00391</t>
+    <t>IPR2013-00350</t>
   </si>
   <si>
     <t>IPR</t>
   </si>
   <si>
-    <t>12/03/2014</t>
+    <t>11/07/2014</t>
   </si>
   <si>
     <t>Yes</t>
@@ -72,7 +72,7 @@
     <t>FINAL WRITTEN DECISION</t>
   </si>
   <si>
-    <t>6857067</t>
+    <t>8401682</t>
   </si>
   <si>
     <t>PAT-B2</t>
@@ -81,54 +81,200 @@
     <t>No</t>
   </si>
   <si>
-    <t>DISTINCTIVE DEVELOPMENTS
-LTD
-ELECTRONIC ARTS INC.
-GAMELOFT S.E.
-HALFBRICK STUDIOS PTY LTD.
-LAMINAR RESEARCH LLC
-MOJANG AB
-SQUARE ENIX, INC.</t>
-  </si>
-  <si>
-    <t>UNILOC USA, INC.
-UNILOC LUXEMBOURG S.A.</t>
-  </si>
-  <si>
-    <t>0001-IPR2013-00391 FD Final.pdf</t>
-  </si>
-  <si>
-    <t>IPR2015-00180</t>
-  </si>
-  <si>
-    <t>02/16/2016</t>
-  </si>
-  <si>
-    <t>8601154</t>
-  </si>
-  <si>
-    <t>GOOGLE INC.</t>
-  </si>
-  <si>
-    <t>SIMPLEAIR, INC.</t>
-  </si>
-  <si>
-    <t>0005-IPR2015-00180 FD - FINAL.pdf</t>
-  </si>
-  <si>
-    <t>IPR2015-01411</t>
-  </si>
-  <si>
-    <t>7664971</t>
-  </si>
-  <si>
-    <t>ADVANCED MICRO DEVICES, INC.</t>
-  </si>
-  <si>
-    <t>LG ELECTRONICS INC.</t>
-  </si>
-  <si>
-    <t>0017-IPR2015-01411 FD.pdf</t>
+    <t>SDI TECHNOLOGIES, INC.</t>
+  </si>
+  <si>
+    <t>BOSE CORP</t>
+  </si>
+  <si>
+    <t>0027-IPR2013-00350 FD Final.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00517</t>
+  </si>
+  <si>
+    <t>02/11/2015</t>
+  </si>
+  <si>
+    <t>7566537</t>
+  </si>
+  <si>
+    <t>INTELLIGENT BIO-SYSTEMS, INC.</t>
+  </si>
+  <si>
+    <t>ILLUMINA CAMBRIDGE LTD</t>
+  </si>
+  <si>
+    <t>0027-IPR2013-00517 FD Review Complete -- ARC edits entered.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00044</t>
+  </si>
+  <si>
+    <t>04/06/2015</t>
+  </si>
+  <si>
+    <t>6771290</t>
+  </si>
+  <si>
+    <t>PAT-B1</t>
+  </si>
+  <si>
+    <t>SAMSUNG ELECTRONICS AMERICA, INC.</t>
+  </si>
+  <si>
+    <t>BE. TECHNOLOGY, L.L.C.</t>
+  </si>
+  <si>
+    <t>0027-IPR2014-00044 Final Decision.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00251</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>6097023</t>
+  </si>
+  <si>
+    <t>PAT-</t>
+  </si>
+  <si>
+    <t>TRW AUTOMOTIVE US LLC</t>
+  </si>
+  <si>
+    <t>MAGNA ELECTRONICS INCORPORATED</t>
+  </si>
+  <si>
+    <t>0027-IPR2014-00251 FD FINAL.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00635</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>5513129</t>
+  </si>
+  <si>
+    <t>UBISOFT ENTERTAINMENT SA</t>
+  </si>
+  <si>
+    <t>PRINCETON DIGITAL IMAGE CORPORATION</t>
+  </si>
+  <si>
+    <t>0027-IPR2014-00635 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00749</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>8577003</t>
+  </si>
+  <si>
+    <t>GLOBAL TEL*LINK CORPORATION</t>
+  </si>
+  <si>
+    <t>SECURUS TECHNOLOGIES, INC.</t>
+  </si>
+  <si>
+    <t>0027-IPR2014-00749 Final Decision.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-01021</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>8747379</t>
+  </si>
+  <si>
+    <t>FIRST QUALITY BABY PRODUCTS, LLC</t>
+  </si>
+  <si>
+    <t>KIMBERLY-CLARK WORLDWIDE, INC.</t>
+  </si>
+  <si>
+    <t>0027-IPR2014-01021 Final Written Decision.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-01236</t>
+  </si>
+  <si>
+    <t>FINAL WRITTEN DECISION Inter Partes Review</t>
+  </si>
+  <si>
+    <t>7548875</t>
+  </si>
+  <si>
+    <t>MINDGEEK
+S.A.R.L.
+MINDGEEK USA, INC.
+PLAYBOY ENTERPRISES, INC.</t>
+  </si>
+  <si>
+    <t>SKKY INC.</t>
+  </si>
+  <si>
+    <t>0027-IPR2014-01236 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-01528</t>
+  </si>
+  <si>
+    <t>7783252</t>
+  </si>
+  <si>
+    <t>AMAZON.COM, INC.
+AMAZON WEB SERVICES, LLC</t>
+  </si>
+  <si>
+    <t>PERSONALIZED MEDIA COMMUNICATIONS, LLC</t>
+  </si>
+  <si>
+    <t>0027-IPR2014-01528 FWD Mail.pdf</t>
+  </si>
+  <si>
+    <t>IPR2015-00424</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>6066584</t>
+  </si>
+  <si>
+    <t>CERAMTEC GMBH</t>
+  </si>
+  <si>
+    <t>CERAMEDIC, LLC</t>
+  </si>
+  <si>
+    <t>0027-IPR2015-00424 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2015-01131</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>8603557</t>
+  </si>
+  <si>
+    <t>TC HEARTLAND LLC</t>
+  </si>
+  <si>
+    <t>KRAFT FOODS GROUP BRANDS LLC</t>
+  </si>
+  <si>
+    <t>0027-IPR2015-01131 FD - Final - Ready for Mailing.pdf</t>
   </si>
   <si>
     <t>IPR2015-00196
@@ -167,137 +313,1346 @@
     <t>STRAIGHT PATH IP GROUP, INC.</t>
   </si>
   <si>
-    <t>0026-IPR2015-00196 FD.pdf</t>
-  </si>
-  <si>
-    <t>IPR2014-00714</t>
-  </si>
-  <si>
-    <t>10/01/2015</t>
-  </si>
-  <si>
-    <t>43990</t>
-  </si>
-  <si>
-    <t>RE--E</t>
-  </si>
-  <si>
-    <t>UNITED STATES DEPARTMENT OF HOMELAND SECURITY</t>
-  </si>
-  <si>
-    <t>LARRY GOLDEN</t>
-  </si>
-  <si>
-    <t>0046-IPR2014-00714 FD FINAL.pdf</t>
-  </si>
-  <si>
-    <t>IPR2014-00855
-IPR2014-00995
-IPR2014-01042
-IPR2014-00799</t>
-  </si>
-  <si>
-    <t>09/30/2015</t>
-  </si>
-  <si>
-    <t>7808184</t>
-  </si>
-  <si>
-    <t>THE GILLETTE COMPANY
-FUJITSU SEMICONDUCTOR LIMITED
-FUJITSU SEMICONDUCTOR AMERICA, INC.
-ADVANCED MICRO DEVICES, INC.
-RENESAS ELECTRONICS CORPORATION
-RENASAS ELECTRONICS AMERICA, INC.
-GLOBALFOUNDRIES U.S., INC.
+    <t>0027-IPR2015-01406, 07 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2015-01493</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>8431549</t>
+  </si>
+  <si>
+    <t>PHARMACOSMOS A/S</t>
+  </si>
+  <si>
+    <t>LUITPOLD PHARMACEUTICALS, INC.</t>
+  </si>
+  <si>
+    <t>0027-IPR2015-01493 FWD Final.pdf</t>
+  </si>
+  <si>
+    <t>IPR2015-01850
+IPR2015-01853
+IPR2015-01857
+IPR2015-01858</t>
+  </si>
+  <si>
+    <t>03/09/2017</t>
+  </si>
+  <si>
+    <t>8440703
+8007826
+8663685
+8354437</t>
+  </si>
+  <si>
+    <t>PAT-B2
+PAT-B2
+PAT-B2
+PAT-B2</t>
+  </si>
+  <si>
+    <t>COALITION FOR AFFORDABLE DRUGS (ADROCA) LLC</t>
+  </si>
+  <si>
+    <t>ACORDA THERAPEUTICS, INC.</t>
+  </si>
+  <si>
+    <t>0027-IPR2015-01850, -1853, -1857, and -1858 - FD - public.pdf</t>
+  </si>
+  <si>
+    <t>IPR2016-00323</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>7495953</t>
+  </si>
+  <si>
+    <t>MICRON TECHNOLOGY, INC.</t>
+  </si>
+  <si>
+    <t>INNOVATIVE MEMORY SYSTEMS, INC.</t>
+  </si>
+  <si>
+    <t>0027-IPR2016-00323 FD Ready for Mailing.pdf</t>
+  </si>
+  <si>
+    <t>CBM2014-00006</t>
+  </si>
+  <si>
+    <t>CBM</t>
+  </si>
+  <si>
+    <t>7203752</t>
+  </si>
+  <si>
+    <t>GOOGLE INC.</t>
+  </si>
+  <si>
+    <t>UNWIRED PLANET, LLC</t>
+  </si>
+  <si>
+    <t>0028-CBM2014-00006 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00091</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>JUDGMENT Termination of Proceeding</t>
+  </si>
+  <si>
+    <t>5678042</t>
+  </si>
+  <si>
+    <t>Oracle Corporation</t>
+  </si>
+  <si>
+    <t>Clouding IP, LLC</t>
+  </si>
+  <si>
+    <t>0028-final decision-16.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00384</t>
+  </si>
+  <si>
+    <t>03/19/2014</t>
+  </si>
+  <si>
+    <t>ORDER Motion to Terminate</t>
+  </si>
+  <si>
+    <t>5530874</t>
+  </si>
+  <si>
+    <t>SAMSUNG ELECTRONICS CO., LTD.</t>
+  </si>
+  <si>
+    <t>U.S. ETHERNET INNOVATIONS, LLC</t>
+  </si>
+  <si>
+    <t>0028-IPR2013-00384 Order Terminating (3-19-14).pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00505</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>6974569</t>
+  </si>
+  <si>
+    <t>CONOPCO, INC.
+dba UNILEVER</t>
+  </si>
+  <si>
+    <t>THE PROCTER &amp; GAMBLE COMPANY</t>
+  </si>
+  <si>
+    <t>0028-IPR2013-00505 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00521</t>
+  </si>
+  <si>
+    <t>06/05/2014</t>
+  </si>
+  <si>
+    <t>ORDER J 0th Motion to Terminate</t>
+  </si>
+  <si>
+    <t>7839926</t>
+  </si>
+  <si>
+    <t>LOREX CANADA, INC.</t>
+  </si>
+  <si>
+    <t>e—WATCH, INC.</t>
+  </si>
+  <si>
+    <t>0028-IPR2013-00521 Termination Order.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00266</t>
+  </si>
+  <si>
+    <t>7994462</t>
+  </si>
+  <si>
+    <t>MAGNA ELECTRONICS INC.</t>
+  </si>
+  <si>
+    <t>0028-IPR2014-00266 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00357</t>
+  </si>
+  <si>
+    <t>JUDGMENT AND FINAL WRITTEN DECISION</t>
+  </si>
+  <si>
+    <t>8468199</t>
+  </si>
+  <si>
+    <t>SYMANTEC CORPORATION</t>
+  </si>
+  <si>
+    <t>RPOST COMMUNICATIONS LIMITED</t>
+  </si>
+  <si>
+    <t>0028-IPR2014-00357 Adverse Judgment (11-5-14).pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00493</t>
+  </si>
+  <si>
+    <t>7899167</t>
+  </si>
+  <si>
+    <t>0028-IPR2014-00493 Final Decision.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00642</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>6258044</t>
+  </si>
+  <si>
+    <t>U.S. ENDOSCOPY GROUP, INC.</t>
+  </si>
+  <si>
+    <t>CDX DIAGNOSTICS, INC.</t>
+  </si>
+  <si>
+    <t>0028-IPR2014-00642 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00868</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>ORDER  Termination of the Proceeding</t>
+  </si>
+  <si>
+    <t>044459</t>
+  </si>
+  <si>
+    <t>RE--</t>
+  </si>
+  <si>
+    <t>PACK PHARMACEUTICALS</t>
+  </si>
+  <si>
+    <t>ALZA CORPORATION</t>
+  </si>
+  <si>
+    <t>0028-IPR2014-00868 Termination Order.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00904</t>
+  </si>
+  <si>
+    <t>7237634</t>
+  </si>
+  <si>
+    <t>FORD MOTOR COMPANY</t>
+  </si>
+  <si>
+    <t>PAICE LLC &amp; THE ABELL FOUNDATION, INC.</t>
+  </si>
+  <si>
+    <t>0028-IPR2014-00904 FWD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-01527</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>5887243</t>
+  </si>
+  <si>
+    <t>0028-IPR2014-01527 FWD Mail.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-01544
+IPR2015-00852</t>
+  </si>
+  <si>
+    <t>7051147</t>
+  </si>
+  <si>
+    <t>CISCO SYSTEMS, INC.
+QUANTUM CORPORATION
+ORACLE CORPORATION</t>
+  </si>
+  <si>
+    <t>CROSSROADS SYSTEMS, INC.</t>
+  </si>
+  <si>
+    <t>0028-IPR2014-01544 Final Written Decision.pdf</t>
+  </si>
+  <si>
+    <t>IPR2015-00532</t>
+  </si>
+  <si>
+    <t>6501091</t>
+  </si>
+  <si>
+    <t>NANOCO TECHNOLOGIES, LTD.</t>
+  </si>
+  <si>
+    <t>MASSACHUSETTS INSTITUTE OF TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>0028-IPR2015-00532 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2015-01128</t>
+  </si>
+  <si>
+    <t>8293299</t>
+  </si>
+  <si>
+    <t>0028-IPR2015-01128 FD - Final - Ready for Mailing.pdf</t>
+  </si>
+  <si>
+    <t>0028-IPR2015-01406, 07 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2015-01751
+IPR2015-01752</t>
+  </si>
+  <si>
+    <t>7356482</t>
+  </si>
+  <si>
+    <t>RPX CORPORATION</t>
+  </si>
+  <si>
+    <t>APPLICATIONS IN INTERNET TIME, LLC</t>
+  </si>
+  <si>
+    <t>0028-IPR2015-01751, -01752 FWD.pdf</t>
+  </si>
+  <si>
+    <t>0028-IPR2015-01850, -1853, -1857, and -1858 - FD - public.pdf</t>
+  </si>
+  <si>
+    <t>IPR2016-00320</t>
+  </si>
+  <si>
+    <t>6169503</t>
+  </si>
+  <si>
+    <t>0028-IPR2016-00320 FD Mail.pdf</t>
+  </si>
+  <si>
+    <t>IPR2016-00696</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>DECISION Final Written Decision</t>
+  </si>
+  <si>
+    <t>7303992</t>
+  </si>
+  <si>
+    <t>BASF CORPORATION</t>
+  </si>
+  <si>
+    <t>ENTHONE, INC.</t>
+  </si>
+  <si>
+    <t>0028-IPR2016-00696 Final Written Decision.pdf</t>
+  </si>
+  <si>
+    <t>CBM2013-00042</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>Order J 0th Motion to Terminate</t>
+  </si>
+  <si>
+    <t>5878400</t>
+  </si>
+  <si>
+    <t>SAP AMERICA, INC.</t>
+  </si>
+  <si>
+    <t>VERSATA DEVELOPMENT GROUP, INC.</t>
+  </si>
+  <si>
+    <t>0029-CBM2013-00042 Order re Motion to Terminate (FINAL).pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00090</t>
+  </si>
+  <si>
+    <t>5495607</t>
+  </si>
+  <si>
+    <t>0029-final decision-16.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00057</t>
+  </si>
+  <si>
+    <t>03/18/2014</t>
+  </si>
+  <si>
+    <t>6074503</t>
+  </si>
+  <si>
+    <t>BERK—TEK, LLC</t>
+  </si>
+  <si>
+    <t>BELDEN INC.</t>
+  </si>
+  <si>
+    <t>0029-IPR2013-00057 Final Decision.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00289</t>
+  </si>
+  <si>
+    <t>6174237</t>
+  </si>
+  <si>
+    <t>GAME SHOW NETWORK, LLC
+WORLDWINNERCOM, INC.</t>
+  </si>
+  <si>
+    <t>JOHN H. STEPHENSON</t>
+  </si>
+  <si>
+    <t>0029-IPR2013-00289 FD ready for mailing.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00466</t>
+  </si>
+  <si>
+    <t>06/04/2014</t>
+  </si>
+  <si>
+    <t>DECISION  Termination of Trial</t>
+  </si>
+  <si>
+    <t>7734752</t>
+  </si>
+  <si>
+    <t>PALO ALTO NETWORKS, INC.</t>
+  </si>
+  <si>
+    <t>J UNIPER NETWORKS, INC.</t>
+  </si>
+  <si>
+    <t>0029-IPR2013-00466 Termination of Trial.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00509</t>
+  </si>
+  <si>
+    <t>6451300</t>
+  </si>
+  <si>
+    <t>0029-IPR2013-00509 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00040</t>
+  </si>
+  <si>
+    <t>MICROSOFT CORPORATION</t>
+  </si>
+  <si>
+    <t>0029-IPR2014-00040 Final Decision.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00256
+IPR2014-00260
+IPR2014-00264</t>
+  </si>
+  <si>
+    <t>7459664</t>
+  </si>
+  <si>
+    <t>0029-IPR2014-00256 FWD(00264).pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00504</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>7382771</t>
+  </si>
+  <si>
+    <t>MOTOROLA MOBILITY LLC</t>
+  </si>
+  <si>
+    <t>INTELLECTUAL VENTURES II LLC</t>
+  </si>
+  <si>
+    <t>0029-IPR2014-00504 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00879</t>
+  </si>
+  <si>
+    <t>7798679</t>
+  </si>
+  <si>
+    <t>SEOUL SEMICONDUCTOR CO.
+LTD
+NORTH AMERICA SEOUL SEMICONDUCTOR INC.</t>
+  </si>
+  <si>
+    <t>SHARP KABUSHIKI KAISHA
+ENPLAS CORPORATION</t>
+  </si>
+  <si>
+    <t>0029-IPR2014-00879 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00884</t>
+  </si>
+  <si>
+    <t>7104347</t>
+  </si>
+  <si>
+    <t>0029-IPR2014-00884 FWD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-01197
+IPR2015-00822</t>
+  </si>
+  <si>
+    <t>6425035</t>
+  </si>
+  <si>
+    <t>ORACLE CORPORATION
+NETAPP INC.
+DOT HILL SYSTEMS CORPORATION</t>
+  </si>
+  <si>
+    <t>0029-IPR2014-01197 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2015-00097</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>8538321</t>
+  </si>
+  <si>
+    <t>Microsoft CORPORATION</t>
+  </si>
+  <si>
+    <t>IpLeam-Focus, LLC</t>
+  </si>
+  <si>
+    <t>0029-IPR2015-00097 Final Written Decision.pdf</t>
+  </si>
+  <si>
+    <t>IPR2015-00842</t>
+  </si>
+  <si>
+    <t>43919</t>
+  </si>
+  <si>
+    <t>BABY TREND, INC.
+DENNY TSAI
+BETTY TSAI</t>
+  </si>
+  <si>
+    <t>WONDERLAND NURSERYGOODS CO., LTD.</t>
+  </si>
+  <si>
+    <t>0029-IPR2015-00842 FWD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2015-01117
+IPR2016-00283
+IPR2015-01117</t>
+  </si>
+  <si>
+    <t>8642012</t>
+  </si>
+  <si>
+    <t>PAR PHARMACEUTICAL, INC.
+LUPIN LTD.
+LUPIN PHARMACEUTICALS, INC.</t>
+  </si>
+  <si>
+    <t>HORIZON THERAPEUTICS, LLC</t>
+  </si>
+  <si>
+    <t>0029-IPR2015-01117 (joined with IPR2016-00283) FD.pdf</t>
+  </si>
+  <si>
+    <t>0029-IPR2015-01400 FD.pdf</t>
+  </si>
+  <si>
+    <t>0029-IPR2015-01751, -01752 FWD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2015-01847</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>7420151</t>
+  </si>
+  <si>
+    <t>KARL STORZ ENDOSCOPY—AMERICA, INC.</t>
+  </si>
+  <si>
+    <t>NOVADAQ TECHNOLOGIES, INC.</t>
+  </si>
+  <si>
+    <t>0029-IPR2015-01847 FD Ready for Mailing.pdf</t>
+  </si>
+  <si>
+    <t>IPR2016-00290
+IPR2016-01312</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINAL WRITTEN DECISION </t>
+  </si>
+  <si>
+    <t>5965924</t>
+  </si>
+  <si>
+    <t>INTEL CORPORATION
+QUALCOMM INCORPORATED
+GLOBALFOUNDRIES INC.
+GLOBALFOUNDRIES U.S. INC.
 GLOBALFOUNDRIES DRESDEN MODULE ONE LLC &amp; CO. KG
-GLOBALFOUNDRIES DRESDEN MODULE TWO LLC &amp; CO. KG
-TOSHIBA AMERICA ELECTRONIC COMPONENTS, INC.
-TOSHIBA AMERICA INC.
-TOSHIBA AMERICA INFORMATION SYSTEMS, INC.
-TOSHIBA CORPORATION</t>
-  </si>
-  <si>
-    <t>ZOND, LLC</t>
-  </si>
-  <si>
-    <t>0048-IPR2014-00799 FD - Ready for Mailing.pdf</t>
-  </si>
-  <si>
-    <t>IPR2014-00122</t>
-  </si>
-  <si>
-    <t>02/26/2014</t>
-  </si>
-  <si>
-    <t>JUDGMENT AND FINAL WRITTEN DECISION</t>
-  </si>
-  <si>
-    <t>6941543</t>
-  </si>
-  <si>
-    <t>PAT-</t>
-  </si>
-  <si>
-    <t>ABB INC.</t>
-  </si>
-  <si>
-    <t>ROY—G—BIV CORPORATION</t>
-  </si>
-  <si>
-    <t>0049-IPR2014-00122 Judgment (2-25-14).pdf</t>
-  </si>
-  <si>
-    <t>IPR2015-01996
-IPR2016-00964</t>
-  </si>
-  <si>
-    <t>03/29/2017</t>
-  </si>
-  <si>
-    <t>FINAL WRITTEN DECISION2</t>
-  </si>
-  <si>
-    <t>6829634</t>
-  </si>
-  <si>
-    <t>PAT-B1</t>
+GLOBALFOUNDRIES DRESDEN MODULE TWO LLC &amp; CO. KG</t>
+  </si>
+  <si>
+    <t>DSS TECHNOLOGY MANAGEMENT, INC.</t>
+  </si>
+  <si>
+    <t>0029-IPR2016-00290 FD Final--MAILED.pdf</t>
+  </si>
+  <si>
+    <t>IPR2016-00731</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t>7821763</t>
+  </si>
+  <si>
+    <t>TITEFLEX CORPORATION</t>
+  </si>
+  <si>
+    <t>GOODSON HOLDINGS, LLC</t>
+  </si>
+  <si>
+    <t>0029-IPR2016-00731 FWD  Ready for Mailing.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00089</t>
+  </si>
+  <si>
+    <t>6631449</t>
+  </si>
+  <si>
+    <t>0030-final decision-21.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00231</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>8079413</t>
+  </si>
+  <si>
+    <t>MCCLINTON ENERGY GROUP, LLC</t>
+  </si>
+  <si>
+    <t>MAGNUM OIL TOOLS INTERNATIONAL, LTD.</t>
+  </si>
+  <si>
+    <t>0030-IPR2013-00231 Final Decision--circ.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00369</t>
+  </si>
+  <si>
+    <t>7107612</t>
+  </si>
+  <si>
+    <t>0030-IPR2013-00369 Termination of Trial.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00484</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>7577970</t>
+  </si>
+  <si>
+    <t>CUSTOMPLAY, LLC</t>
+  </si>
+  <si>
+    <t>CLEARPLAY, INC.</t>
+  </si>
+  <si>
+    <t>0030-IPR2013-00484 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00580</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>686447</t>
+  </si>
+  <si>
+    <t>D---</t>
+  </si>
+  <si>
+    <t>SENSIO, INC.</t>
+  </si>
+  <si>
+    <t>SELECT BRANDS, INC.</t>
+  </si>
+  <si>
+    <t>0030-IPR2013-00580 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00626</t>
+  </si>
+  <si>
+    <t>DECISION Denying Institution of Inter Partes Review</t>
+  </si>
+  <si>
+    <t>8204561</t>
+  </si>
+  <si>
+    <t>SUPERIOR COMMUNICATIONS, INC.</t>
+  </si>
+  <si>
+    <t>SPECULATIVE PRODUCT DESIGN, LLC</t>
+  </si>
+  <si>
+    <t>0030-IPR2013-00626 DI.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00027</t>
+  </si>
+  <si>
+    <t>7463151</t>
+  </si>
+  <si>
+    <t>0030-IPR2014-00027 FD.pdf</t>
+  </si>
+  <si>
+    <t>0030-IPR2014-00256 FWD(00260).pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00500</t>
+  </si>
+  <si>
+    <t>5790793</t>
+  </si>
+  <si>
+    <t>INTELLECTUAL VENTURES I LLC</t>
+  </si>
+  <si>
+    <t>0030-IPR2014-00500 FD Final.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00878</t>
+  </si>
+  <si>
+    <t>8227969</t>
+  </si>
+  <si>
+    <t>ENPLAS CORPORATION</t>
+  </si>
+  <si>
+    <t>0030-IPR2014-00878 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-01146</t>
+  </si>
+  <si>
+    <t>8243207</t>
+  </si>
+  <si>
+    <t>UNIVERSAL REMOTE CONTROL, INC.</t>
+  </si>
+  <si>
+    <t>UNIVERSAL ELECTRONICS, INC.</t>
+  </si>
+  <si>
+    <t>0030-IPR2014-01146 Final Written Decision RFM.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-01226
+IPR2015-00825</t>
+  </si>
+  <si>
+    <t>01/29/2016</t>
+  </si>
+  <si>
+    <t>CISCO SYSTEMS, INC.
+QUANTUM CORPORATION
+ORACLE CORPORATION
+DOT HILL SYSTEMS CORPORATION</t>
+  </si>
+  <si>
+    <t>0030-IPR2014-01226 FD Ready for Mailing.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-01534</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>7827587</t>
+  </si>
+  <si>
+    <t>0030-IPR2014-01534 FD.pdf</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0030-IPR2015-00842 FWD.pdf</t>
+  </si>
+  <si>
+    <t>0030-IPR2015-01117 (joined with IPR2016-00283) FD.pdf</t>
+  </si>
+  <si>
+    <t>0030-IPR2015-01397, 98 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2015-01750</t>
+  </si>
+  <si>
+    <t>8484111</t>
+  </si>
+  <si>
+    <t>0030-IPR2015-01750 FWD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2015-01901</t>
+  </si>
+  <si>
+    <t>8000314</t>
+  </si>
+  <si>
+    <t>EMERSON ELECTRIC CO.</t>
+  </si>
+  <si>
+    <t>IF CO., LLC</t>
+  </si>
+  <si>
+    <t>0030-IPR2015_01901 FD FINAL.pdf</t>
+  </si>
+  <si>
+    <t>IPR2016-00288
+IPR2016-01314</t>
+  </si>
+  <si>
+    <t>6784552</t>
+  </si>
+  <si>
+    <t>0030-IPR2016-00288 FD Final.pdf</t>
+  </si>
+  <si>
+    <t>IPR2016-00747</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>6732147</t>
   </si>
   <si>
     <t>ACTIVISION BLIZZARD, INC.
 ELECTRONIC ARTS INC.
 TAKE-TWO INTERACTIVE SOFTWARE, INC.
 2K SPORTS, INC.
-ROCKSTAR GAMES, INC.
-BUNGIE, INC.</t>
+ROCKSTAR GAMES, INC.</t>
   </si>
   <si>
     <t>ACCELERATION BAY, LLC</t>
   </si>
   <si>
-    <t>0075-IPR2015-01996 Final Written Decision - Public.pdf</t>
-  </si>
-  <si>
-    <t>IPR2014-01006</t>
-  </si>
-  <si>
-    <t>01/06/2016</t>
-  </si>
-  <si>
-    <t>7614653</t>
-  </si>
-  <si>
-    <t>HYUNDAI MOBIS CO., LTD.
-MOBIS ALABAMA, L.L.C.</t>
-  </si>
-  <si>
-    <t>AUTOLIV ASP, INC.</t>
-  </si>
-  <si>
-    <t>0076-IPR2014-01006 FWD (Hyundai v Autoliv).pdf</t>
-  </si>
-  <si>
-    <t>01/04/2017</t>
+    <t>0030-IPR2016-00747 FWD.pdf</t>
+  </si>
+  <si>
+    <t>0031-BLANK.pdf</t>
+  </si>
+  <si>
+    <t>CBM2014-00116</t>
+  </si>
+  <si>
+    <t>THE UNITED STATES POSTAL SERVICE (USPS) AND THE UNITED STATES OF AMERICA
+AS REPRESENTED BY THE POSTMASTER GENERAL</t>
+  </si>
+  <si>
+    <t>0031-CBM2014-00116 Final Written Decision.pdf</t>
+  </si>
+  <si>
+    <t>CBM2015-00004</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>6658464</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MOTOROLA MOBILITY, LLC</t>
+  </si>
+  <si>
+    <t>INTELLECTUAL VENTURES I, LLC</t>
+  </si>
+  <si>
+    <t>0031-cbm2015-00004 FD (final).pdf</t>
+  </si>
+  <si>
+    <t>CBM2016-00048</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t>8060435</t>
+  </si>
+  <si>
+    <t>CQG, INC.
+CQG, LLC
+(f/k/a CQGT, LLC</t>
+  </si>
+  <si>
+    <t>CHART TRADING DEVELOPMENT, LLC</t>
+  </si>
+  <si>
+    <t>0031-CBM2016-00048 FWD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00088</t>
+  </si>
+  <si>
+    <t>7254621</t>
+  </si>
+  <si>
+    <t>0031-final decision-21.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00250
+IPR2012-00022</t>
+  </si>
+  <si>
+    <t>6258540</t>
+  </si>
+  <si>
+    <t>ARIOSA DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>ISIS INNOVATION LIMITED</t>
+  </si>
+  <si>
+    <t>0031-IPR2012-00022 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00081</t>
+  </si>
+  <si>
+    <t>06/02/2014</t>
+  </si>
+  <si>
+    <t>5982889</t>
+  </si>
+  <si>
+    <t>APPLE INC.</t>
+  </si>
+  <si>
+    <t>ACHATES REFERENCE PUBLISHING, INC.</t>
+  </si>
+  <si>
+    <t>0031-IPR2013-00081 Final Written Decision.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00363</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>7348575</t>
+  </si>
+  <si>
+    <t>CARL ZEISS SMT GMBH</t>
+  </si>
+  <si>
+    <t>NIKON CORPORATION</t>
+  </si>
+  <si>
+    <t>0031-IPR2013-00363 FD Final.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00501</t>
+  </si>
+  <si>
+    <t>675864</t>
+  </si>
+  <si>
+    <t>0031-IPR2013-00501 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00031
+IPR2014-00033</t>
+  </si>
+  <si>
+    <t>GOOGLE, INC.</t>
+  </si>
+  <si>
+    <t>0031-IPR2014-00031, -00033 Final Decision.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00244</t>
+  </si>
+  <si>
+    <t>03/17/2014</t>
+  </si>
+  <si>
+    <t>ORDER  Motion to Terminate</t>
+  </si>
+  <si>
+    <t>5793302</t>
+  </si>
+  <si>
+    <t>FIFTH THIRD BANK</t>
+  </si>
+  <si>
+    <t>LEON STAMBLER</t>
+  </si>
+  <si>
+    <t>0031-IPR2014-00244 Decision on Joint Motion to Terminate.pdf</t>
+  </si>
+  <si>
+    <t>0031-IPR2014-00256 FWD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00501</t>
+  </si>
+  <si>
+    <t>7136392</t>
+  </si>
+  <si>
+    <t>0031-IPR2014-00501 FD Final.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00901
+IPR2014-00949
+IPR2014-00901
+IPR2014-00949</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>6978346</t>
+  </si>
+  <si>
+    <t>VMWARE, INC.
+INTERNATIONAL BUSINESS MACHINES CORPORATION
+ORACLE AMERICA, INC.</t>
+  </si>
+  <si>
+    <t>ELECTRONICS AND TELECOMMUNICATIONS RESEARCH INSTITUTE</t>
+  </si>
+  <si>
+    <t>0031-IPR2014-00901 FD Final.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-01195</t>
+  </si>
+  <si>
+    <t>7787431</t>
+  </si>
+  <si>
+    <t>ERICSSON INC. AND TELEFONAKTIEBOLAGET LM ERICSSON</t>
+  </si>
+  <si>
+    <t>0031-IPR2014-01195 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2015-00841</t>
+  </si>
+  <si>
+    <t>0031-IPR2015-00841 FWD.pdf</t>
+  </si>
+  <si>
+    <t>0031-IPR2015-01397, 98 FD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2015-01833</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>6091940</t>
+  </si>
+  <si>
+    <t>QUALCOMM INCORPORATED
+QUALCOMM ATHEROS, INC.</t>
+  </si>
+  <si>
+    <t>PARKERVISION, INC.</t>
+  </si>
+  <si>
+    <t>0031-IPR2015-01833 - FWD.pdf</t>
+  </si>
+  <si>
+    <t>IPR2015-01928</t>
+  </si>
+  <si>
+    <t>7265494</t>
+  </si>
+  <si>
+    <t>MICROSOFT CORPORATION AND MICROSOFT MOBILE, INC.</t>
+  </si>
+  <si>
+    <t>GLOBAL TOUCH SOLUTIONS, LLC</t>
+  </si>
+  <si>
+    <t>0031-IPR2015-01928 FD.pdf</t>
+  </si>
+  <si>
+    <t>0031-IPR2016-00288 FD Final.pdf</t>
+  </si>
+  <si>
+    <t>0032-BLANK.pdf</t>
+  </si>
+  <si>
+    <t>CBM2015-00010</t>
+  </si>
+  <si>
+    <t>FINAL WRITTEN DECISION Covered Business Method Patent Review</t>
+  </si>
+  <si>
+    <t>8402281</t>
+  </si>
+  <si>
+    <t>INFORMATICA CORPORATION</t>
+  </si>
+  <si>
+    <t>PROTEGRITY CORPORATION</t>
+  </si>
+  <si>
+    <t>0032-CBM2015-00010 FD Review Complete (2).pdf</t>
+  </si>
+  <si>
+    <t>CBM2016-00047</t>
+  </si>
+  <si>
+    <t>8041626</t>
+  </si>
+  <si>
+    <t>CQG, INC.
+CQG, LLC
+(f/k/a CQGT, LLC
+INTERACTIVE BROKERS LLC</t>
+  </si>
+  <si>
+    <t>0032-CBM2016-00047 FWD READY FOR MAILING.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00075</t>
+  </si>
+  <si>
+    <t>6925481</t>
+  </si>
+  <si>
+    <t>0032-final decision-24.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00026</t>
+  </si>
+  <si>
+    <t>03/14/2014</t>
+  </si>
+  <si>
+    <t>6029111</t>
+  </si>
+  <si>
+    <t>DENSO CORPORATION AND CLARION CO. Ltd.</t>
+  </si>
+  <si>
+    <t>BEACON NAVIGATION GmbH</t>
+  </si>
+  <si>
+    <t>0032-IPR2013-00026 FD RC_gjp.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00080</t>
+  </si>
+  <si>
+    <t>6173403</t>
+  </si>
+  <si>
+    <t>0032-IPR2013-00080 Final Written Decision.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00362</t>
+  </si>
+  <si>
+    <t>0032-IPR2013-00362 FD Final.pdf</t>
+  </si>
+  <si>
+    <t>IPR2013-00500</t>
+  </si>
+  <si>
+    <t>669731</t>
+  </si>
+  <si>
+    <t>0032-IPR2013-00500 FD.pdf</t>
+  </si>
+  <si>
+    <t>0032-IPR2014-00031, -00033 Final Decision.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00395</t>
+  </si>
+  <si>
+    <t>6482228</t>
+  </si>
+  <si>
+    <t>MEDTRONIC, INC.
+MEDTRONIC VASCULAR, INC.
+AND MEDTRONIC COREVALVE, LLC</t>
+  </si>
+  <si>
+    <t>TROY R. NORRED, M.D.</t>
+  </si>
+  <si>
+    <t>0032-IPR2014-00395 Final Written Decision.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00472</t>
+  </si>
+  <si>
+    <t>JUDGMENT Termination ofProceeding</t>
+  </si>
+  <si>
+    <t>7096358</t>
+  </si>
+  <si>
+    <t>ORACLE CORPORATION AND APPLE INC.</t>
+  </si>
+  <si>
+    <t>MAZ ENCRYPTION TECHNOLOGIES LLC</t>
+  </si>
+  <si>
+    <t>0032-IPR2014-00472 Judgment Termination - draft.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00583</t>
+  </si>
+  <si>
+    <t>7068430</t>
+  </si>
+  <si>
+    <t>PAT-C1</t>
+  </si>
+  <si>
+    <t>EDMUND OPTICS, INC.</t>
+  </si>
+  <si>
+    <t>SEMROCK, INC.</t>
+  </si>
+  <si>
+    <t>0032-IPR2014-00583 - Final Written Decision - RFM.pdf</t>
+  </si>
+  <si>
+    <t>IPR2014-00667</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>7637573</t>
+  </si>
+  <si>
+    <t>IGB AUTOMOTIVE LTD.
+LG. BAUERHIN GmbH</t>
+  </si>
+  <si>
+    <t>GENTHERM GmbH</t>
+  </si>
+  <si>
+    <t>0032-IPR2014-00667 FD Final.pdf</t>
+  </si>
+  <si>
+    <t>PGR2015-00005</t>
+  </si>
+  <si>
+    <t>PGR</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>8725557</t>
+  </si>
+  <si>
+    <t>AMERICAN SIMMENTAL ASSOCIATION</t>
+  </si>
+  <si>
+    <t>LEACHMAN CATTLE OF COLORADO, LLC</t>
+  </si>
+  <si>
+    <t>0069-PGR2015-00005 final FD.pdf</t>
+  </si>
+  <si>
+    <t>01/28/2016</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
   </si>
 </sst>
 </file>
@@ -707,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,7 +2118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -801,7 +2156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -846,8 +2201,8 @@
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>76</v>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
@@ -856,36 +2211,36 @@
         <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -894,36 +2249,36 @@
         <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -932,45 +2287,45 @@
         <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="220.8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>18</v>
@@ -979,133 +2334,3910 @@
         <v>19</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="J9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="K9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="J10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="K10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>75</v>
+      <c r="D30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="69" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>